--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.8538619724494</v>
+        <v>149.2167409537907</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.1481209454174</v>
+        <v>204.1649279508929</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.1501248412028</v>
+        <v>184.6797137745938</v>
       </c>
       <c r="AD2" t="n">
-        <v>114853.8619724494</v>
+        <v>149216.7409537907</v>
       </c>
       <c r="AE2" t="n">
-        <v>157148.1209454174</v>
+        <v>204164.9279508929</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.116024085276881e-06</v>
+        <v>5.933925451810798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.38425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>142150.1248412028</v>
+        <v>184679.7137745938</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.10625216341316</v>
+        <v>107.0063555498633</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.9731523652493</v>
+        <v>146.4108164504912</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.382030455336</v>
+        <v>132.4375736173675</v>
       </c>
       <c r="AD3" t="n">
-        <v>81106.25216341316</v>
+        <v>107006.3555498633</v>
       </c>
       <c r="AE3" t="n">
-        <v>110973.1523652493</v>
+        <v>146410.8164504911</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.33933503443481e-06</v>
+        <v>7.697529314735899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.694444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>100382.030455336</v>
+        <v>132437.5736173675</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.75183607496712</v>
+        <v>94.0186611744849</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.0152481697606</v>
+        <v>128.6404800294702</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.99274027429171</v>
+        <v>116.3632131635393</v>
       </c>
       <c r="AD4" t="n">
-        <v>76751.83607496711</v>
+        <v>94018.66117448491</v>
       </c>
       <c r="AE4" t="n">
-        <v>105015.2481697606</v>
+        <v>128640.4800294702</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.835003636081336e-06</v>
+        <v>8.412117098975244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>94992.7402742917</v>
+        <v>116363.2131635393</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.11867809808065</v>
+        <v>92.38550319759844</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.7806893759408</v>
+        <v>126.4059212356503</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.97144463553035</v>
+        <v>114.3419175247779</v>
       </c>
       <c r="AD5" t="n">
-        <v>75118.67809808065</v>
+        <v>92385.50319759845</v>
       </c>
       <c r="AE5" t="n">
-        <v>102780.6893759408</v>
+        <v>126405.9212356503</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.032157686789224e-06</v>
+        <v>8.696347077999878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.04050925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>92971.44463553035</v>
+        <v>114341.9175247779</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.37504248979165</v>
+        <v>91.18980502167017</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.44901727782131</v>
+        <v>124.7699142408655</v>
       </c>
       <c r="AC6" t="n">
-        <v>80.91212861133187</v>
+        <v>112.8620487414246</v>
       </c>
       <c r="AD6" t="n">
-        <v>65375.04248979165</v>
+        <v>91189.80502167017</v>
       </c>
       <c r="AE6" t="n">
-        <v>89449.01727782132</v>
+        <v>124769.9142408655</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.14207868522599e-06</v>
+        <v>8.854816269821553e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>80912.12861133186</v>
+        <v>112862.0487414246</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.9558041126368</v>
+        <v>89.7705666445153</v>
       </c>
       <c r="AB7" t="n">
-        <v>87.50715271782077</v>
+        <v>122.8280496808649</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.15559287951314</v>
+        <v>111.1055130096058</v>
       </c>
       <c r="AD7" t="n">
-        <v>63955.8041126368</v>
+        <v>89770.5666445153</v>
       </c>
       <c r="AE7" t="n">
-        <v>87507.15271782078</v>
+        <v>122828.0496808649</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.277733696674705e-06</v>
+        <v>9.050385272437598e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.843749999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>79155.59287951313</v>
+        <v>111105.5130096058</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.32350584842765</v>
+        <v>89.13826838030616</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.64201433769956</v>
+        <v>121.9629113007437</v>
       </c>
       <c r="AC8" t="n">
-        <v>78.37302209216108</v>
+        <v>110.3229422222538</v>
       </c>
       <c r="AD8" t="n">
-        <v>63323.50584842765</v>
+        <v>89138.26838030615</v>
       </c>
       <c r="AE8" t="n">
-        <v>86642.01433769957</v>
+        <v>121962.9113007437</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.281882649792958e-06</v>
+        <v>9.056366670504446e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>78373.02209216107</v>
+        <v>110322.9422222538</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>62.65694301813115</v>
+        <v>88.47170555000966</v>
       </c>
       <c r="AB9" t="n">
-        <v>85.72999366661172</v>
+        <v>121.0508906296559</v>
       </c>
       <c r="AC9" t="n">
-        <v>77.5480433938925</v>
+        <v>109.4979635239852</v>
       </c>
       <c r="AD9" t="n">
-        <v>62656.94301813115</v>
+        <v>88471.70555000966</v>
       </c>
       <c r="AE9" t="n">
-        <v>85729.99366661171</v>
+        <v>121050.8906296559</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.347688197352091e-06</v>
+        <v>9.151236186678625e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.78587962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>77548.0433938925</v>
+        <v>109497.9635239852</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.88713795727739</v>
+        <v>117.0541572762656</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.7240359275207</v>
+        <v>160.158662050275</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.7251103934239</v>
+        <v>144.8733441283348</v>
       </c>
       <c r="AD2" t="n">
-        <v>91887.13795727739</v>
+        <v>117054.1572762656</v>
       </c>
       <c r="AE2" t="n">
-        <v>125724.0359275207</v>
+        <v>160158.662050275</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.906229445262844e-06</v>
+        <v>7.182535340650562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>113725.1103934239</v>
+        <v>144873.3441283348</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.82924049181736</v>
+        <v>99.91091895623391</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.3846680739655</v>
+        <v>136.7025270745222</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.61321905079612</v>
+        <v>123.6558297537682</v>
       </c>
       <c r="AD3" t="n">
-        <v>74829.24049181736</v>
+        <v>99910.91895623392</v>
       </c>
       <c r="AE3" t="n">
-        <v>102384.6680739655</v>
+        <v>136702.5270745222</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.878565289146008e-06</v>
+        <v>8.605998437839235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>92613.21905079612</v>
+        <v>123655.8297537682</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.83157763141705</v>
+        <v>87.99850744185417</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.96893644884476</v>
+        <v>120.4034401020507</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.76418181234762</v>
+        <v>108.9123047660319</v>
       </c>
       <c r="AD4" t="n">
-        <v>62831.57763141705</v>
+        <v>87998.50744185418</v>
       </c>
       <c r="AE4" t="n">
-        <v>85968.93644884476</v>
+        <v>120403.4401020507</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.337052308564348e-06</v>
+        <v>9.277206186466112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.959490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>77764.18181234761</v>
+        <v>108912.3047660319</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.10796204267493</v>
+        <v>86.27489185311205</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.61060955977587</v>
+        <v>118.0451132129818</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.63093033163813</v>
+        <v>106.7790532853225</v>
       </c>
       <c r="AD5" t="n">
-        <v>61107.96204267493</v>
+        <v>86274.89185311206</v>
       </c>
       <c r="AE5" t="n">
-        <v>83610.60955977587</v>
+        <v>118045.1132129818</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.543341586053557e-06</v>
+        <v>9.579205928323707e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.803240740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>75630.93033163813</v>
+        <v>106779.0532853225</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.76704099433154</v>
+        <v>84.93397080476868</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.77590222417182</v>
+        <v>116.2104058773778</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.97132488911562</v>
+        <v>105.1194478428</v>
       </c>
       <c r="AD6" t="n">
-        <v>59767.04099433155</v>
+        <v>84933.97080476867</v>
       </c>
       <c r="AE6" t="n">
-        <v>81775.90222417182</v>
+        <v>116210.4058773778</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.689433729105566e-06</v>
+        <v>9.793079329918407e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.699074074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>73971.32488911563</v>
+        <v>105119.4478428</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.38976309617148</v>
+        <v>84.5566929066086</v>
       </c>
       <c r="AB7" t="n">
-        <v>81.25969395958332</v>
+        <v>115.6941976127892</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.50438281679642</v>
+        <v>104.6525057704808</v>
       </c>
       <c r="AD7" t="n">
-        <v>59389.76309617147</v>
+        <v>84556.6929066086</v>
       </c>
       <c r="AE7" t="n">
-        <v>81259.69395958331</v>
+        <v>115694.1976127892</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.724421955258596e-06</v>
+        <v>9.844300776786011e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>73504.38281679642</v>
+        <v>104652.5057704808</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.26057776766697</v>
+        <v>77.47710311581457</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.24171630944055</v>
+        <v>106.0075905315712</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.15619110378756</v>
+        <v>95.89037487385271</v>
       </c>
       <c r="AD2" t="n">
-        <v>54260.57776766697</v>
+        <v>77477.10311581458</v>
       </c>
       <c r="AE2" t="n">
-        <v>74241.71630944056</v>
+        <v>106007.5905315712</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.049523868928732e-06</v>
+        <v>1.090648356851379e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.976851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>67156.19110378757</v>
+        <v>95890.37487385271</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>51.598097429154</v>
+        <v>67.21801575220512</v>
       </c>
       <c r="AB3" t="n">
-        <v>70.59879324994635</v>
+        <v>91.97065460169618</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.8609435082157</v>
+        <v>83.19310440815713</v>
       </c>
       <c r="AD3" t="n">
-        <v>51598.097429154</v>
+        <v>67218.01575220512</v>
       </c>
       <c r="AE3" t="n">
-        <v>70598.79324994635</v>
+        <v>91970.65460169618</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.607020850419309e-06</v>
+        <v>1.176900021235728e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.612268518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>63860.94350821571</v>
+        <v>83193.10440815713</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.11876048163307</v>
+        <v>95.18315701686649</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.30782562920888</v>
+        <v>130.2337946149466</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.0209033235723</v>
+        <v>117.8044640412095</v>
       </c>
       <c r="AD2" t="n">
-        <v>71118.76048163307</v>
+        <v>95183.15701686649</v>
       </c>
       <c r="AE2" t="n">
-        <v>97307.82562920888</v>
+        <v>130233.7946149466</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.916729730931809e-06</v>
+        <v>8.94191795524349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.671296296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>88020.9033235723</v>
+        <v>117804.4640412095</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.10381172589452</v>
+        <v>80.08286740655632</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.76371032882935</v>
+        <v>109.5729121923695</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.43748955360753</v>
+        <v>99.11542723930587</v>
       </c>
       <c r="AD3" t="n">
-        <v>56103.81172589451</v>
+        <v>80082.86740655632</v>
       </c>
       <c r="AE3" t="n">
-        <v>76763.71032882934</v>
+        <v>109572.9121923695</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.036592249061572e-06</v>
+        <v>1.063435942437439e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.768518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>69437.48955360753</v>
+        <v>99115.42723930588</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.345201920237</v>
+        <v>70.47347379829756</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.35750280834093</v>
+        <v>96.42491592103039</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.26092710174031</v>
+        <v>87.22225727877053</v>
       </c>
       <c r="AD4" t="n">
-        <v>54345.20192023699</v>
+        <v>70473.47379829756</v>
       </c>
       <c r="AE4" t="n">
-        <v>74357.50280834093</v>
+        <v>96424.91592103039</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.317471330075735e-06</v>
+        <v>1.105885028537191e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>67260.92710174031</v>
+        <v>87222.25727877053</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.79982411239158</v>
+        <v>72.39091816924312</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.13831636373362</v>
+        <v>99.04844790103222</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.63529108272135</v>
+        <v>89.59540304875209</v>
       </c>
       <c r="AD2" t="n">
-        <v>49799.82411239158</v>
+        <v>72390.91816924312</v>
       </c>
       <c r="AE2" t="n">
-        <v>68138.31636373363</v>
+        <v>99048.44790103222</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.679720070983294e-06</v>
+        <v>1.213770534138159e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>61635.29108272135</v>
+        <v>89595.40304875209</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>49.42417628208916</v>
+        <v>72.0152703389407</v>
       </c>
       <c r="AB3" t="n">
-        <v>67.62433842990147</v>
+        <v>98.53446996720007</v>
       </c>
       <c r="AC3" t="n">
-        <v>61.1703664815214</v>
+        <v>89.13047844755216</v>
       </c>
       <c r="AD3" t="n">
-        <v>49424.17628208917</v>
+        <v>72015.2703389407</v>
       </c>
       <c r="AE3" t="n">
-        <v>67624.33842990147</v>
+        <v>98534.46996720007</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.816916395013995e-06</v>
+        <v>1.235454248383126e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.658564814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>61170.3664815214</v>
+        <v>89130.47844755216</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.79647792499928</v>
+        <v>128.6078676801885</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.7047232223766</v>
+        <v>175.9669583386437</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.3258864797898</v>
+        <v>159.1729188060299</v>
       </c>
       <c r="AD2" t="n">
-        <v>94796.47792499929</v>
+        <v>128607.8676801885</v>
       </c>
       <c r="AE2" t="n">
-        <v>129704.7232223766</v>
+        <v>175966.9583386437</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.714900621118076e-06</v>
+        <v>6.873788969094126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.608796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>117325.8864797898</v>
+        <v>159172.9188060299</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.73784436442511</v>
+        <v>100.9898001211536</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.6278599772406</v>
+        <v>138.1786998812423</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.73776246365385</v>
+        <v>124.991118699637</v>
       </c>
       <c r="AD3" t="n">
-        <v>75737.84436442511</v>
+        <v>100989.8001211536</v>
       </c>
       <c r="AE3" t="n">
-        <v>103627.8599772406</v>
+        <v>138178.6998812423</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.800829941973739e-06</v>
+        <v>8.456950436693298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>93737.76246365385</v>
+        <v>124991.118699637</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.2362910240532</v>
+        <v>90.18474583748468</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.205124336201</v>
+        <v>123.3947479249818</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.64168790835433</v>
+        <v>111.6181263686703</v>
       </c>
       <c r="AD4" t="n">
-        <v>73236.29102405321</v>
+        <v>90184.74583748469</v>
       </c>
       <c r="AE4" t="n">
-        <v>100205.124336201</v>
+        <v>123394.7479249818</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.142615817762909e-06</v>
+        <v>8.955235378748906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.075231481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>90641.68790835433</v>
+        <v>111618.1263686703</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.38273978055021</v>
+        <v>87.71994688329923</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.35481669996058</v>
+        <v>120.0223012566115</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.20867279037425</v>
+        <v>108.5675412770696</v>
       </c>
       <c r="AD5" t="n">
-        <v>62382.73978055021</v>
+        <v>87719.94688329923</v>
       </c>
       <c r="AE5" t="n">
-        <v>85354.81669996057</v>
+        <v>120022.3012566115</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.422860852968112e-06</v>
+        <v>9.363800773109246e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.849537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>77208.67279037426</v>
+        <v>108567.5412770696</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.51012041581226</v>
+        <v>86.84732751856127</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.16086038787734</v>
+        <v>118.8283449445282</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.12866599298765</v>
+        <v>107.487534479683</v>
       </c>
       <c r="AD6" t="n">
-        <v>61510.12041581226</v>
+        <v>86847.32751856127</v>
       </c>
       <c r="AE6" t="n">
-        <v>84160.86038787733</v>
+        <v>118828.3449445282</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.479771324094316e-06</v>
+        <v>9.446769768659461e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>76128.66599298765</v>
+        <v>107487.534479683</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>60.30973773513772</v>
+        <v>85.64694483788675</v>
       </c>
       <c r="AB7" t="n">
-        <v>82.5184438470329</v>
+        <v>117.1859284036838</v>
       </c>
       <c r="AC7" t="n">
-        <v>74.6429993816548</v>
+        <v>106.0018678683502</v>
       </c>
       <c r="AD7" t="n">
-        <v>60309.73773513772</v>
+        <v>85646.94483788675</v>
       </c>
       <c r="AE7" t="n">
-        <v>82518.4438470329</v>
+        <v>117185.9284036838</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.609475510416955e-06</v>
+        <v>9.635863723513267e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.716435185185186</v>
       </c>
       <c r="AH7" t="n">
-        <v>74642.99938165481</v>
+        <v>106001.8678683502</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.23576796147073</v>
+        <v>85.57297506421976</v>
       </c>
       <c r="AB8" t="n">
-        <v>82.41723513938568</v>
+        <v>117.0847196960366</v>
       </c>
       <c r="AC8" t="n">
-        <v>74.55144989101807</v>
+        <v>105.9103183777134</v>
       </c>
       <c r="AD8" t="n">
-        <v>60235.76796147073</v>
+        <v>85572.97506421976</v>
       </c>
       <c r="AE8" t="n">
-        <v>82417.23513938568</v>
+        <v>117084.7196960366</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.621212958577327e-06</v>
+        <v>9.652975588253047e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.704861111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>74551.44989101807</v>
+        <v>105910.3183777134</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.10925362514391</v>
+        <v>70.32999871370338</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.82520324037641</v>
+        <v>96.22860698061471</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.54293822938195</v>
+        <v>87.04468378810675</v>
       </c>
       <c r="AD2" t="n">
-        <v>48109.25362514392</v>
+        <v>70329.99871370337</v>
       </c>
       <c r="AE2" t="n">
-        <v>65825.20324037642</v>
+        <v>96228.60698061471</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.866180368809788e-06</v>
+        <v>1.260346869833642e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>59542.93822938195</v>
+        <v>87044.68378810675</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.53219292764255</v>
+        <v>110.1465800475404</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.0289197775908</v>
+        <v>150.7074101451382</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.8598439251684</v>
+        <v>136.3241064401059</v>
       </c>
       <c r="AD2" t="n">
-        <v>85532.19292764255</v>
+        <v>110146.5800475404</v>
       </c>
       <c r="AE2" t="n">
-        <v>117028.9197775908</v>
+        <v>150707.4101451382</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.375288799012405e-06</v>
+        <v>7.981461005819821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.024305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>105859.8439251684</v>
+        <v>136324.1064401059</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.73780076539249</v>
+        <v>86.2043159178891</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.41833562180655</v>
+        <v>117.9485481048193</v>
       </c>
       <c r="AC3" t="n">
-        <v>86.31174359055998</v>
+        <v>106.691704215553</v>
       </c>
       <c r="AD3" t="n">
-        <v>69737.80076539249</v>
+        <v>86204.31591788911</v>
       </c>
       <c r="AE3" t="n">
-        <v>95418.33562180655</v>
+        <v>117948.5481048193</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.379894831376671e-06</v>
+        <v>9.473143438771131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.075231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>86311.74359055999</v>
+        <v>106691.704215553</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.88005940273973</v>
+        <v>83.49435701408648</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.5622948796904</v>
+        <v>114.2406627776893</v>
       </c>
       <c r="AC4" t="n">
-        <v>72.87354252628252</v>
+        <v>103.3376942599934</v>
       </c>
       <c r="AD4" t="n">
-        <v>58880.05940273973</v>
+        <v>83494.35701408648</v>
       </c>
       <c r="AE4" t="n">
-        <v>80562.29487969039</v>
+        <v>114240.6627776893</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.755663499970935e-06</v>
+        <v>1.003110099002773e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.797453703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>72873.54252628252</v>
+        <v>103337.6942599934</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.85119824003469</v>
+        <v>73.4029647385519</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.78631752984134</v>
+        <v>100.4331746655033</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.36250055859348</v>
+        <v>90.84797343429874</v>
       </c>
       <c r="AD5" t="n">
-        <v>56851.19824003469</v>
+        <v>73402.96473855191</v>
       </c>
       <c r="AE5" t="n">
-        <v>77786.31752984134</v>
+        <v>100433.1746655033</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.023621881702018e-06</v>
+        <v>1.042897717025495e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.612268518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>70362.50055859349</v>
+        <v>90847.97343429874</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.03322922523863</v>
+        <v>81.64752683658537</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.03538035443752</v>
+        <v>111.7137482524365</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.58779317677218</v>
+        <v>101.051944910483</v>
       </c>
       <c r="AD6" t="n">
-        <v>57033.22922523863</v>
+        <v>81647.52683658537</v>
       </c>
       <c r="AE6" t="n">
-        <v>78035.38035443753</v>
+        <v>111713.7482524365</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.986845475435606e-06</v>
+        <v>1.037436997359539e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>70587.79317677217</v>
+        <v>101051.944910483</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.23881768040768</v>
+        <v>114.2290846993269</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.1004872890646</v>
+        <v>156.2932731171036</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.4473881513385</v>
+        <v>141.3768624898366</v>
       </c>
       <c r="AD2" t="n">
-        <v>89238.81768040768</v>
+        <v>114229.0846993269</v>
       </c>
       <c r="AE2" t="n">
-        <v>122100.4872890646</v>
+        <v>156293.2731171036</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.096142329980945e-06</v>
+        <v>7.49358416175794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.226851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>110447.3881513385</v>
+        <v>141376.8624898366</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.3038958635654</v>
+        <v>90.02099761540963</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.2976242601366</v>
+        <v>123.1707003834771</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.72535976937394</v>
+        <v>111.415461610074</v>
       </c>
       <c r="AD3" t="n">
-        <v>73303.8958635654</v>
+        <v>90020.99761540962</v>
       </c>
       <c r="AE3" t="n">
-        <v>100297.6242601366</v>
+        <v>123170.7003834771</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.018919345219428e-06</v>
+        <v>8.850474683740519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.27199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>90725.35976937394</v>
+        <v>111415.4616100741</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.65852462652448</v>
+        <v>86.64870213689261</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.36391357610538</v>
+        <v>118.5565769345959</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.31234006991822</v>
+        <v>107.2417036271897</v>
       </c>
       <c r="AD4" t="n">
-        <v>61658.52462652448</v>
+        <v>86648.70213689261</v>
       </c>
       <c r="AE4" t="n">
-        <v>84363.91357610538</v>
+        <v>118556.5769345959</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.447153694995481e-06</v>
+        <v>9.480168662679005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.924768518518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>76312.34006991822</v>
+        <v>107241.7036271897</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.01895779085606</v>
+        <v>85.00913530122419</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.12058589896117</v>
+        <v>116.3132492574517</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.28311243774976</v>
+        <v>105.2124759950213</v>
       </c>
       <c r="AD5" t="n">
-        <v>60018.95779085606</v>
+        <v>85009.13530122419</v>
       </c>
       <c r="AE5" t="n">
-        <v>82120.58589896117</v>
+        <v>116313.2492574517</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.654250634641275e-06</v>
+        <v>9.7846928000345e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.768518518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>74283.11243774976</v>
+        <v>105212.4759950213</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.74485117222405</v>
+        <v>83.73502868259217</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.37729701373279</v>
+        <v>114.5699603722233</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.7062005970057</v>
+        <v>103.6355641542772</v>
       </c>
       <c r="AD6" t="n">
-        <v>58744.85117222405</v>
+        <v>83735.02868259218</v>
       </c>
       <c r="AE6" t="n">
-        <v>80377.29701373278</v>
+        <v>114569.9603722233</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.784783133676496e-06</v>
+        <v>9.976633331524458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>72706.20059700571</v>
+        <v>103635.5641542772</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.66665395719362</v>
+        <v>83.65683146756174</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.27030413431055</v>
+        <v>114.4629674928011</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.60941896783005</v>
+        <v>103.5387825251015</v>
       </c>
       <c r="AD7" t="n">
-        <v>58666.65395719362</v>
+        <v>83656.83146756174</v>
       </c>
       <c r="AE7" t="n">
-        <v>80270.30413431054</v>
+        <v>114462.9674928011</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.800907736498495e-06</v>
+        <v>1.000034363247322e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.664351851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>72609.41896783005</v>
+        <v>103538.7825251015</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.7002555982453</v>
+        <v>136.4463307317835</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.4649734600536</v>
+        <v>186.6918892944145</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.0093689754928</v>
+        <v>168.8742774039204</v>
       </c>
       <c r="AD2" t="n">
-        <v>110700.2555982453</v>
+        <v>136446.3307317835</v>
       </c>
       <c r="AE2" t="n">
-        <v>151464.9734600536</v>
+        <v>186691.8892944145</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.310918706609281e-06</v>
+        <v>6.236918663192058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.106481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>137009.3689754928</v>
+        <v>168874.2774039204</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.71392534840631</v>
+        <v>104.4599109733935</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.6998652749483</v>
+        <v>142.9266586397608</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.42114129084493</v>
+        <v>129.285938938046</v>
       </c>
       <c r="AD3" t="n">
-        <v>78713.92534840631</v>
+        <v>104459.9109733935</v>
       </c>
       <c r="AE3" t="n">
-        <v>107699.8652749483</v>
+        <v>142926.6586397608</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.54183838003503e-06</v>
+        <v>8.017779404618038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.526620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>97421.14129084493</v>
+        <v>129285.938938046</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.30665943405512</v>
+        <v>92.47073935926427</v>
       </c>
       <c r="AB4" t="n">
-        <v>103.0378937329721</v>
+        <v>126.5225451123955</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.20410176971531</v>
+        <v>114.4474109824092</v>
       </c>
       <c r="AD4" t="n">
-        <v>75306.65943405512</v>
+        <v>92470.73935926428</v>
       </c>
       <c r="AE4" t="n">
-        <v>103037.8937329721</v>
+        <v>126522.5451123955</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.965979461382316e-06</v>
+        <v>8.631415060058642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.133101851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>93204.10176971531</v>
+        <v>114447.4109824092</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.37901678141486</v>
+        <v>91.54309670662403</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.7686521309249</v>
+        <v>125.2533035103483</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.05599480477524</v>
+        <v>113.2993040174692</v>
       </c>
       <c r="AD5" t="n">
-        <v>74379.01678141486</v>
+        <v>91543.09670662403</v>
       </c>
       <c r="AE5" t="n">
-        <v>101768.6521309249</v>
+        <v>125253.3035103483</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.072649990453057e-06</v>
+        <v>8.785743048789647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.046296296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>92055.99480477524</v>
+        <v>113299.3040174692</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.14565000816678</v>
+        <v>89.80629477858236</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.76690824749457</v>
+        <v>122.8769344901095</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.39055770600412</v>
+        <v>111.1497323212664</v>
       </c>
       <c r="AD6" t="n">
-        <v>64145.65000816678</v>
+        <v>89806.29477858235</v>
       </c>
       <c r="AE6" t="n">
-        <v>87766.90824749458</v>
+        <v>122876.9344901095</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.240675925574911e-06</v>
+        <v>9.028838352130696e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.907407407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>79390.55770600411</v>
+        <v>111149.7323212664</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.03284488774382</v>
+        <v>88.69348965815938</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.24431918823556</v>
+        <v>121.3543454308505</v>
       </c>
       <c r="AC7" t="n">
-        <v>78.01328240959315</v>
+        <v>109.7724570248554</v>
       </c>
       <c r="AD7" t="n">
-        <v>63032.84488774382</v>
+        <v>88693.48965815938</v>
       </c>
       <c r="AE7" t="n">
-        <v>86244.31918823556</v>
+        <v>121354.3454308505</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.340729176167319e-06</v>
+        <v>9.1735926442903e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.832175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>78013.28240959314</v>
+        <v>109772.4570248554</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>61.82792670753891</v>
+        <v>87.48857147795448</v>
       </c>
       <c r="AB8" t="n">
-        <v>84.59569697684157</v>
+        <v>119.7057232194565</v>
       </c>
       <c r="AC8" t="n">
-        <v>76.52200238819826</v>
+        <v>108.2811770034605</v>
       </c>
       <c r="AD8" t="n">
-        <v>61827.92670753891</v>
+        <v>87488.57147795448</v>
       </c>
       <c r="AE8" t="n">
-        <v>84595.69697684157</v>
+        <v>119705.7232194565</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.44978192549026e-06</v>
+        <v>9.33136716378701e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.751157407407408</v>
       </c>
       <c r="AH8" t="n">
-        <v>76522.00238819826</v>
+        <v>108281.1770034605</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>61.89333844286949</v>
+        <v>87.55398321328505</v>
       </c>
       <c r="AB9" t="n">
-        <v>84.68519619888295</v>
+        <v>119.7952224414978</v>
       </c>
       <c r="AC9" t="n">
-        <v>76.60295993010098</v>
+        <v>108.3621345453632</v>
       </c>
       <c r="AD9" t="n">
-        <v>61893.33844286948</v>
+        <v>87553.98321328506</v>
       </c>
       <c r="AE9" t="n">
-        <v>84685.19619888294</v>
+        <v>119795.2224414978</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.451317134097233e-06</v>
+        <v>9.333588261391574e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.751157407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>76602.95993010097</v>
+        <v>108362.1345453632</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.2939724249251</v>
+        <v>98.58140012452158</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.6522906904834</v>
+        <v>134.8834207547431</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.95073873689519</v>
+        <v>122.0103363880165</v>
       </c>
       <c r="AD2" t="n">
-        <v>74293.9724249251</v>
+        <v>98581.40012452158</v>
       </c>
       <c r="AE2" t="n">
-        <v>101652.2906904834</v>
+        <v>134883.4207547431</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.607009047474035e-06</v>
+        <v>8.419959217345744e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.908564814814816</v>
       </c>
       <c r="AH2" t="n">
-        <v>91950.73873689519</v>
+        <v>122010.3363880165</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.27145934250862</v>
+        <v>81.47354618753346</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.36133731085719</v>
+        <v>111.4757002529192</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.8826412587547</v>
+        <v>100.8366158779372</v>
       </c>
       <c r="AD3" t="n">
-        <v>57271.45934250862</v>
+        <v>81473.54618753346</v>
       </c>
       <c r="AE3" t="n">
-        <v>78361.3373108572</v>
+        <v>111475.7002529192</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.918860055527315e-06</v>
+        <v>1.038994569204541e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>70882.64125875471</v>
+        <v>100836.6158779372</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.36575399983754</v>
+        <v>71.64271332080681</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.75386718722986</v>
+        <v>98.0247210189339</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.52402442411822</v>
+        <v>88.6693792234712</v>
       </c>
       <c r="AD4" t="n">
-        <v>55365.75399983754</v>
+        <v>71642.71332080681</v>
       </c>
       <c r="AE4" t="n">
-        <v>75753.86718722986</v>
+        <v>98024.72101893391</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.206418071393704e-06</v>
+        <v>1.082176714011435e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>68524.02442411822</v>
+        <v>88669.3792234712</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.15267150472886</v>
+        <v>71.42963082569813</v>
       </c>
       <c r="AB5" t="n">
-        <v>75.46231831688607</v>
+        <v>97.73317214859013</v>
       </c>
       <c r="AC5" t="n">
-        <v>68.26030056876856</v>
+        <v>88.40565536812151</v>
       </c>
       <c r="AD5" t="n">
-        <v>55152.67150472886</v>
+        <v>71429.63082569813</v>
       </c>
       <c r="AE5" t="n">
-        <v>75462.31831688607</v>
+        <v>97733.17214859012</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.236256296103201e-06</v>
+        <v>1.086657474307071e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.577546296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>68260.30056876855</v>
+        <v>88405.65536812152</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.82874038209469</v>
+        <v>80.54521387480641</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.7015426329227</v>
+        <v>110.2055150275155</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.23599189745488</v>
+        <v>99.68765534772943</v>
       </c>
       <c r="AD2" t="n">
-        <v>64828.74038209469</v>
+        <v>80545.2138748064</v>
       </c>
       <c r="AE2" t="n">
-        <v>88701.54263292269</v>
+        <v>110205.5150275155</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.670599425293388e-06</v>
+        <v>1.023101018163605e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>80235.99189745488</v>
+        <v>99687.65534772944</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.56273950433846</v>
+        <v>68.36446434307075</v>
       </c>
       <c r="AB3" t="n">
-        <v>71.91865909421789</v>
+        <v>93.53927614145996</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.05484320875372</v>
+        <v>84.61201890974053</v>
       </c>
       <c r="AD3" t="n">
-        <v>52562.73950433846</v>
+        <v>68364.46434307075</v>
       </c>
       <c r="AE3" t="n">
-        <v>71918.65909421789</v>
+        <v>93539.27614145997</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.523522199370386e-06</v>
+        <v>1.153917771342383e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>65054.84320875373</v>
+        <v>84612.01890974052</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>52.66222630554817</v>
+        <v>68.46395114428046</v>
       </c>
       <c r="AB4" t="n">
-        <v>72.05478132468085</v>
+        <v>93.67539837192292</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.17797412459011</v>
+        <v>84.7351498255769</v>
       </c>
       <c r="AD4" t="n">
-        <v>52662.22630554817</v>
+        <v>68463.95114428045</v>
       </c>
       <c r="AE4" t="n">
-        <v>72054.78132468085</v>
+        <v>93675.39837192293</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.503059688948031e-06</v>
+        <v>1.150779340458958e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>65177.9741245901</v>
+        <v>84735.1498255769</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.71744820235868</v>
+        <v>74.63688761806098</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.7620942432294</v>
+        <v>102.1214823860823</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.00865928389426</v>
+        <v>92.37515143558095</v>
       </c>
       <c r="AD2" t="n">
-        <v>51717.44820235868</v>
+        <v>74636.88761806098</v>
       </c>
       <c r="AE2" t="n">
-        <v>70762.0942432294</v>
+        <v>102121.4823860823</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.448253403800217e-06</v>
+        <v>1.163774902391674e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.797453703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>64008.65928389426</v>
+        <v>92375.15143558095</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>50.46113391664614</v>
+        <v>65.88299495140036</v>
       </c>
       <c r="AB3" t="n">
-        <v>69.04314961284376</v>
+        <v>90.14402024507505</v>
       </c>
       <c r="AC3" t="n">
-        <v>62.45376831647813</v>
+        <v>81.54080147083391</v>
       </c>
       <c r="AD3" t="n">
-        <v>50461.13391664614</v>
+        <v>65882.99495140037</v>
       </c>
       <c r="AE3" t="n">
-        <v>69043.14961284376</v>
+        <v>90144.02024507505</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.751263745932745e-06</v>
+        <v>1.211119670650905e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>62453.76831647813</v>
+        <v>81540.80147083392</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.74083307995966</v>
+        <v>68.53076070288184</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.95286988000253</v>
+        <v>93.766810157431</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.84929773708517</v>
+        <v>84.81783739857335</v>
       </c>
       <c r="AD2" t="n">
-        <v>46740.83307995966</v>
+        <v>68530.76070288183</v>
       </c>
       <c r="AE2" t="n">
-        <v>63952.86988000253</v>
+        <v>93766.810157431</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.835809655580184e-06</v>
+        <v>1.276983197917927e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.890046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>57849.29773708517</v>
+        <v>84817.83739857335</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.22978730424771</v>
+        <v>112.0361228758904</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.3516432962391</v>
+        <v>153.2927660036316</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.9608899711606</v>
+        <v>138.6627195640353</v>
       </c>
       <c r="AD2" t="n">
-        <v>87229.78730424771</v>
+        <v>112036.1228758904</v>
       </c>
       <c r="AE2" t="n">
-        <v>119351.6432962391</v>
+        <v>153292.7660036316</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.245671608433025e-06</v>
+        <v>7.74985454241804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>107960.8899711606</v>
+        <v>138662.7195640353</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>71.40707076614522</v>
+        <v>88.00155155313841</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.70230447983026</v>
+        <v>120.4076051894065</v>
       </c>
       <c r="AC3" t="n">
-        <v>88.37773366634504</v>
+        <v>108.9160723432962</v>
       </c>
       <c r="AD3" t="n">
-        <v>71407.07076614522</v>
+        <v>88001.55155313842</v>
       </c>
       <c r="AE3" t="n">
-        <v>97702.30447983026</v>
+        <v>120407.6051894065</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.204969393149264e-06</v>
+        <v>9.167102675614754e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.167824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>88377.73366634504</v>
+        <v>108916.0723432962</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.88258184168193</v>
+        <v>84.68882790477355</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.93399030881895</v>
+        <v>115.8749905466631</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.11432526884209</v>
+        <v>104.8160440804902</v>
       </c>
       <c r="AD4" t="n">
-        <v>59882.58184168192</v>
+        <v>84688.82790477354</v>
       </c>
       <c r="AE4" t="n">
-        <v>81933.99030881895</v>
+        <v>115874.9905466631</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.656035443556027e-06</v>
+        <v>9.833499000168445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.814814814814815</v>
       </c>
       <c r="AH4" t="n">
-        <v>74114.32526884209</v>
+        <v>104816.0440804902</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.235812975611</v>
+        <v>83.04205903870263</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.68080849594686</v>
+        <v>113.621808733791</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.07618396582929</v>
+        <v>102.7779027774774</v>
       </c>
       <c r="AD5" t="n">
-        <v>58235.812975611</v>
+        <v>83042.05903870263</v>
       </c>
       <c r="AE5" t="n">
-        <v>79680.80849594687</v>
+        <v>113621.808733791</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.869520468518286e-06</v>
+        <v>1.014889767815321e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.664351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>72076.18396582929</v>
+        <v>102777.9027774774</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.82646508353189</v>
+        <v>82.63271114662351</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.12072065085005</v>
+        <v>113.0617208886942</v>
       </c>
       <c r="AC6" t="n">
-        <v>71.56955011858011</v>
+        <v>102.2712689302282</v>
       </c>
       <c r="AD6" t="n">
-        <v>57826.46508353188</v>
+        <v>82632.71114662351</v>
       </c>
       <c r="AE6" t="n">
-        <v>79120.72065085005</v>
+        <v>113061.7208886942</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.894447365568887e-06</v>
+        <v>1.018572419737821e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.64699074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>71569.55011858011</v>
+        <v>102271.2689302283</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.01677279240201</v>
+        <v>132.0473633006565</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.1108727293376</v>
+        <v>180.6730279864032</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.3115192618775</v>
+        <v>163.4298477716189</v>
       </c>
       <c r="AD2" t="n">
-        <v>98016.77279240201</v>
+        <v>132047.3633006565</v>
       </c>
       <c r="AE2" t="n">
-        <v>134110.8727293376</v>
+        <v>180673.0279864032</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.524793625965012e-06</v>
+        <v>6.570765105741147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.828703703703705</v>
       </c>
       <c r="AH2" t="n">
-        <v>121311.5192618775</v>
+        <v>163429.8477716189</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.11880460429742</v>
+        <v>102.5351609258248</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.517350701099</v>
+        <v>140.2931307106995</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.44692284474463</v>
+        <v>126.9037512183537</v>
       </c>
       <c r="AD3" t="n">
-        <v>77118.80460429742</v>
+        <v>102535.1609258248</v>
       </c>
       <c r="AE3" t="n">
-        <v>105517.350701099</v>
+        <v>140293.1307106995</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.678731298271916e-06</v>
+        <v>8.246477639432069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.439814814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>95446.92284474464</v>
+        <v>126903.7512183537</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.8001949993631</v>
+        <v>91.85825018932719</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.3449267497929</v>
+        <v>125.6845104089729</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.57727058282524</v>
+        <v>113.6893571348919</v>
       </c>
       <c r="AD4" t="n">
-        <v>74800.1949993631</v>
+        <v>91858.2501893272</v>
       </c>
       <c r="AE4" t="n">
-        <v>102344.9267497929</v>
+        <v>125684.5104089729</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.991422892516242e-06</v>
+        <v>8.700558684041256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>92577.27058282524</v>
+        <v>113689.3571348919</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>64.05976679545206</v>
+        <v>89.56137446300002</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.64939904695839</v>
+        <v>122.5418237092082</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.28426341864187</v>
+        <v>110.8466040429632</v>
       </c>
       <c r="AD5" t="n">
-        <v>64059.76679545206</v>
+        <v>89561.37446300001</v>
       </c>
       <c r="AE5" t="n">
-        <v>87649.3990469584</v>
+        <v>122541.8237092082</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.247800107803968e-06</v>
+        <v>9.07286173239529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.942129629629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>79284.26341864187</v>
+        <v>110846.6040429632</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.39839402009861</v>
+        <v>87.90000168764658</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.37623552112699</v>
+        <v>120.2686601833768</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.22804742931004</v>
+        <v>108.7903880536314</v>
       </c>
       <c r="AD6" t="n">
-        <v>62398.39402009861</v>
+        <v>87900.00168764658</v>
       </c>
       <c r="AE6" t="n">
-        <v>85376.23552112699</v>
+        <v>120268.6601833767</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.43158248386802e-06</v>
+        <v>9.339744804534148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.803240740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>77228.04742931004</v>
+        <v>108790.3880536314</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.32342860924044</v>
+        <v>86.8250362767884</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.90542042186466</v>
+        <v>118.7978450841144</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.89760485881889</v>
+        <v>107.4599454831403</v>
       </c>
       <c r="AD7" t="n">
-        <v>61323.42860924044</v>
+        <v>86825.03627678839</v>
       </c>
       <c r="AE7" t="n">
-        <v>83905.42042186466</v>
+        <v>118797.8450841144</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.512878028086885e-06</v>
+        <v>9.457799674957467e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.74537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>75897.6048588189</v>
+        <v>107459.9454831403</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>60.87331379246529</v>
+        <v>86.37492146001325</v>
       </c>
       <c r="AB8" t="n">
-        <v>83.28955347188898</v>
+        <v>118.1819781341387</v>
       </c>
       <c r="AC8" t="n">
-        <v>75.34051538617399</v>
+        <v>106.9028560104954</v>
       </c>
       <c r="AD8" t="n">
-        <v>60873.31379246529</v>
+        <v>86374.92146001325</v>
       </c>
       <c r="AE8" t="n">
-        <v>83289.55347188898</v>
+        <v>118181.9781341387</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.549068690582216e-06</v>
+        <v>9.510354633688266e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.716435185185186</v>
       </c>
       <c r="AH8" t="n">
-        <v>75340.515386174</v>
+        <v>106902.8560104954</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.40998600068395</v>
+        <v>73.58638571087478</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.70965501150891</v>
+        <v>100.6841393317976</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.86578618235937</v>
+        <v>91.07498638507305</v>
       </c>
       <c r="AD2" t="n">
-        <v>52409.98600068395</v>
+        <v>73586.38571087478</v>
       </c>
       <c r="AE2" t="n">
-        <v>71709.65501150892</v>
+        <v>100684.1393317976</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.48758116737271e-06</v>
+        <v>1.248135170309896e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>64865.78618235937</v>
+        <v>91074.98638507305</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.55923727242063</v>
+        <v>91.21626799927573</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.43752893928585</v>
+        <v>124.8061220542896</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.61542091422965</v>
+        <v>112.8948009319535</v>
       </c>
       <c r="AD2" t="n">
-        <v>67559.23727242064</v>
+        <v>91216.26799927573</v>
       </c>
       <c r="AE2" t="n">
-        <v>92437.52893928585</v>
+        <v>124806.1220542896</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.326754667340507e-06</v>
+        <v>9.62872982223509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.376157407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>83615.42091422965</v>
+        <v>112894.8009319535</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.12527913988134</v>
+        <v>77.86756121275701</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.05659475795014</v>
+        <v>106.5418325256031</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.98873729335162</v>
+        <v>96.37362956178769</v>
       </c>
       <c r="AD3" t="n">
-        <v>54125.27913988134</v>
+        <v>77867.56121275701</v>
       </c>
       <c r="AE3" t="n">
-        <v>74056.59475795014</v>
+        <v>106541.8325256031</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.315743644934535e-06</v>
+        <v>1.113387869604536e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.652777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>66988.73729335162</v>
+        <v>96373.62956178769</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>53.50563120740878</v>
+        <v>69.47605401361193</v>
       </c>
       <c r="AB4" t="n">
-        <v>73.20876511980418</v>
+        <v>95.06020216856885</v>
       </c>
       <c r="AC4" t="n">
-        <v>66.22182332593366</v>
+        <v>85.98778989145571</v>
       </c>
       <c r="AD4" t="n">
-        <v>53505.63120740878</v>
+        <v>69476.05401361192</v>
       </c>
       <c r="AE4" t="n">
-        <v>73208.76511980419</v>
+        <v>95060.20216856885</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.415977028207305e-06</v>
+        <v>1.128642454576577e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.58912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>66221.82332593366</v>
+        <v>85987.7898914557</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.5252848417511</v>
+        <v>108.9386969548238</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.6512237128252</v>
+        <v>149.054731209643</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.613633239215</v>
+        <v>134.8291568626643</v>
       </c>
       <c r="AD2" t="n">
-        <v>84525.2848417511</v>
+        <v>108938.6969548238</v>
       </c>
       <c r="AE2" t="n">
-        <v>115651.2237128252</v>
+        <v>149054.731209643</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.439557859915139e-06</v>
+        <v>8.120774099815212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.024305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>104613.633239215</v>
+        <v>134829.1568626643</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.42375512314261</v>
+        <v>83.83707772766422</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.30620335050759</v>
+        <v>114.7095883777769</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.54645341672723</v>
+        <v>103.76186625895</v>
       </c>
       <c r="AD3" t="n">
-        <v>59423.75512314261</v>
+        <v>83837.07772766422</v>
       </c>
       <c r="AE3" t="n">
-        <v>81306.20335050758</v>
+        <v>114709.5883777769</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.632406118566733e-06</v>
+        <v>9.901590021500925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.936342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>73546.45341672724</v>
+        <v>103761.86625895</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.99738807029379</v>
+        <v>81.41071067481541</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.98634090504189</v>
+        <v>111.3897259323112</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.54343398359953</v>
+        <v>100.7588468258223</v>
       </c>
       <c r="AD4" t="n">
-        <v>56997.3880702938</v>
+        <v>81410.7106748154</v>
       </c>
       <c r="AE4" t="n">
-        <v>77986.34090504188</v>
+        <v>111389.7259323112</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.995099909382365e-06</v>
+        <v>1.044305946046473e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.681712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>70543.43398359953</v>
+        <v>100758.8468258223</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.0537513615504</v>
+        <v>72.47153452218417</v>
       </c>
       <c r="AB5" t="n">
-        <v>76.69521552982636</v>
+        <v>99.15875075166862</v>
       </c>
       <c r="AC5" t="n">
-        <v>69.37553180208832</v>
+        <v>89.6951787501348</v>
       </c>
       <c r="AD5" t="n">
-        <v>56053.7513615504</v>
+        <v>72471.53452218417</v>
       </c>
       <c r="AE5" t="n">
-        <v>76695.21552982635</v>
+        <v>99158.75075166862</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.120242851250866e-06</v>
+        <v>1.06298866966615e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>69375.53180208831</v>
+        <v>89695.1787501348</v>
       </c>
     </row>
   </sheetData>
